--- a/output/xlsx/RF003 - Visualizar Permissões do Usuário--GT-.xlsx
+++ b/output/xlsx/RF003 - Visualizar Permissões do Usuário--GT-.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">System: </t>
   </si>
   <si>
-    <t>RGP-Competências</t>
+    <t>GTI-Competências</t>
   </si>
   <si>
     <t/>
